--- a/data-raw/DADOS_N+MO_SOCA.xlsx
+++ b/data-raw/DADOS_N+MO_SOCA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjary\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Not. Unesp\Desktop\cana-ajferreira\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E37ED8-134C-4702-B241-D6A76A568EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{62A1550E-AD99-4440-84C6-4BFD8B35D5A6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TCH" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="REDUTASE DO NITRATO" sheetId="6" r:id="rId5"/>
     <sheet name="ATR E TAH" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="28">
   <si>
     <t>parcela</t>
   </si>
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -639,18 +638,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A09300-39ED-4911-A25D-0EE520B8483C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="10"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
+    <col min="1" max="4" width="8.85546875" style="10"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -667,7 +666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -684,7 +683,7 @@
         <v>114.24003700620692</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -701,7 +700,7 @@
         <v>109.35918755969523</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -718,7 +717,7 @@
         <v>93.435459088409957</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -735,7 +734,7 @@
         <v>95.651604690365389</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -752,7 +751,7 @@
         <v>116.21483888042525</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -769,7 +768,7 @@
         <v>91.735395720279428</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -786,7 +785,7 @@
         <v>119.40388145361169</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -803,7 +802,7 @@
         <v>108.66666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -820,7 +819,7 @@
         <v>114.63848090895816</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -837,7 +836,7 @@
         <v>129.07176582704406</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -854,7 +853,7 @@
         <v>110.69058906902688</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -871,7 +870,7 @@
         <v>117.02690283892956</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -888,7 +887,7 @@
         <v>108.28475593333333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -905,7 +904,7 @@
         <v>121.8739344</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -922,7 +921,7 @@
         <v>107.9917726272123</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -939,7 +938,7 @@
         <v>122.15008816599573</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -956,7 +955,7 @@
         <v>106.48981832763809</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -973,7 +972,7 @@
         <v>107.39194135114276</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -990,7 +989,7 @@
         <v>88.309220702262067</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>119.03005360717343</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>110.86974458323078</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>107.93589615044733</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>101.70922232753703</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>113.2128727225912</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>130.70269385637988</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>120.08689816513328</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>109.66666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>117.11285614000877</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>121.3092425424</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>107.63663246658086</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>113.92571504195386</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1211,7 +1210,7 @@
         <v>97.168660501846361</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -1228,7 +1227,7 @@
         <v>111.63078764757829</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>113.19909711155321</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>35</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>116.6215101124136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>103.8096075744</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>97.893277014638997</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>38</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>110.38946509211534</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -1330,7 +1329,7 @@
         <v>104.98528682069747</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>108.58051533333332</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -1364,7 +1363,7 @@
         <v>141.42167099737892</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>103.30876207494265</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>43</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>109.11138769407115</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>116.34421666666667</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -1432,7 +1431,7 @@
         <v>114.46070913333334</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>97.210716858464124</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>109.15395302300938</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -1484,7 +1483,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
+  <sortState ref="A2:E49">
     <sortCondition ref="A1:A49"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1493,22 +1492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884BEF34-81B0-43EC-AEA6-0435140B2613}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="17"/>
-    <col min="3" max="4" width="13.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="17"/>
-    <col min="6" max="6" width="9.109375" style="17" customWidth="1"/>
+    <col min="1" max="2" width="8.85546875" style="17"/>
+    <col min="3" max="4" width="13.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="17"/>
+    <col min="6" max="6" width="9.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1638,7 +1637,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>4.7881197081200302</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>2.6956359224337199</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -1820,7 +1819,7 @@
         <v>4.1201135655115504</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>4.4058175112666804</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -1898,7 +1897,7 @@
         <v>3.3078157401583002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -1924,7 +1923,7 @@
         <v>5.0522267557570997</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>3.8010280874548701</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>4.8140504063012797</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -2080,7 +2079,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>3.6116614915384999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>3.01786265250563</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>2.5731165960436102</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>4.8054908284471001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>32</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -2392,7 +2391,7 @@
         <v>5.6708723297759596</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -2418,7 +2417,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>3.2186025063819601</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -2496,7 +2495,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>2.4865167963690502</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>5.6482559018036502</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>40</v>
       </c>
@@ -2574,7 +2573,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -2626,7 +2625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>3.4132555507936901</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>4.5195552912288299</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -2788,24 +2787,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7050320-9953-48EA-89A9-9FC58E6534FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="17"/>
-    <col min="6" max="6" width="12.21875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="17"/>
-    <col min="8" max="8" width="17.6640625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="17"/>
-    <col min="10" max="10" width="19.88671875" style="17" customWidth="1"/>
+    <col min="1" max="5" width="8.85546875" style="17"/>
+    <col min="6" max="6" width="12.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="17"/>
+    <col min="8" max="8" width="17.7109375" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="17"/>
+    <col min="10" max="10" width="19.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>0.14699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2997,7 +2996,7 @@
         <v>0.19314448811323101</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>0.113476468759542</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -3061,7 +3060,7 @@
         <v>0.110060588012983</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>0.189714388167399</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -3157,7 +3156,7 @@
         <v>0.11994741190180699</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>0.15252287548090701</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -3317,7 +3316,7 @@
         <v>0.24707608251520199</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -3349,7 +3348,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>0.17748102280029501</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -3445,7 +3444,7 @@
         <v>0.167038327528851</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -3477,7 +3476,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>0.133169465321649</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>0.16684860955746</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -3573,7 +3572,7 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>0.18399052674720401</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>0.183101226547977</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -3669,7 +3668,7 @@
         <v>0.25389600339287199</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -3733,7 +3732,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -3765,7 +3764,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>0.17100000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -3829,7 +3828,7 @@
         <v>0.16052744157954099</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -3861,7 +3860,7 @@
         <v>0.24919825363098699</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>0.26835722993511701</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>0.116236266931433</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>0.12798897557007</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -4085,7 +4084,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>0.14318983151714201</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>0.16540043570353399</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>0.26324176281023698</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -4277,7 +4276,7 @@
         <v>0.17806789469121301</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -4309,7 +4308,7 @@
         <v>0.122594942637389</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -4379,22 +4378,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D3426F-2668-4A7C-9778-F23ED5776A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>0.77100000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5130,7 +5129,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5226,7 +5225,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5290,7 +5289,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>1.173</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5386,7 +5385,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5450,7 +5449,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5674,7 +5673,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5834,7 +5833,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5898,7 +5897,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5963,7 +5962,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J49">
+  <sortState ref="A2:J49">
     <sortCondition ref="A1:A49"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5971,22 +5970,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10135377-CEC0-4F85-BCCB-8450AEFD138C}">
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="30"/>
-    <col min="6" max="6" width="16.33203125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.85546875" style="30"/>
+    <col min="5" max="5" width="16.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
@@ -6000,19 +5999,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>3</v>
       </c>
@@ -6025,20 +6021,17 @@
       <c r="D2" s="30">
         <v>1</v>
       </c>
-      <c r="E2" s="30">
-        <v>3</v>
+      <c r="E2" s="32">
+        <v>0.63839698971584302</v>
       </c>
       <c r="F2" s="32">
-        <v>0.63839698971584302</v>
+        <v>0.597888255280425</v>
       </c>
       <c r="G2" s="32">
-        <v>0.597888255280425</v>
-      </c>
-      <c r="H2" s="32">
         <v>0.24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>19</v>
       </c>
@@ -6051,20 +6044,17 @@
       <c r="D3" s="30">
         <v>2</v>
       </c>
-      <c r="E3" s="30">
-        <v>19</v>
+      <c r="E3" s="32">
+        <v>0.76340047372894726</v>
       </c>
       <c r="F3" s="32">
-        <v>0.76340047372894726</v>
+        <v>0.57668177478484162</v>
       </c>
       <c r="G3" s="32">
-        <v>0.57668177478484162</v>
-      </c>
-      <c r="H3" s="32">
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>32</v>
       </c>
@@ -6077,20 +6067,17 @@
       <c r="D4" s="30">
         <v>3</v>
       </c>
-      <c r="E4" s="30">
-        <v>32</v>
+      <c r="E4" s="32">
+        <v>0.83172874726007384</v>
       </c>
       <c r="F4" s="32">
-        <v>0.83172874726007384</v>
+        <v>0.64686596441937039</v>
       </c>
       <c r="G4" s="32">
-        <v>0.64686596441937039</v>
-      </c>
-      <c r="H4" s="32">
         <v>0.20725459334197721</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>42</v>
       </c>
@@ -6103,20 +6090,17 @@
       <c r="D5" s="30">
         <v>4</v>
       </c>
-      <c r="E5" s="30">
-        <v>42</v>
+      <c r="E5" s="32">
+        <v>0.74</v>
       </c>
       <c r="F5" s="32">
-        <v>0.74</v>
+        <v>0.51188257577547747</v>
       </c>
       <c r="G5" s="32">
-        <v>0.51188257577547747</v>
-      </c>
-      <c r="H5" s="32">
         <v>0.26278476368779063</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>6</v>
       </c>
@@ -6129,20 +6113,17 @@
       <c r="D6" s="30">
         <v>1</v>
       </c>
-      <c r="E6" s="30">
-        <v>6</v>
+      <c r="E6" s="32">
+        <v>0.64438611316766248</v>
       </c>
       <c r="F6" s="32">
-        <v>0.64438611316766248</v>
+        <v>0.7429153114701319</v>
       </c>
       <c r="G6" s="32">
-        <v>0.7429153114701319</v>
-      </c>
-      <c r="H6" s="32">
         <v>0.21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>13</v>
       </c>
@@ -6155,20 +6136,17 @@
       <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
-        <v>13</v>
+      <c r="E7" s="32">
+        <v>0.62082612159542705</v>
       </c>
       <c r="F7" s="32">
-        <v>0.62082612159542705</v>
+        <v>0.55494204562938498</v>
       </c>
       <c r="G7" s="32">
-        <v>0.55494204562938498</v>
-      </c>
-      <c r="H7" s="32">
         <v>0.22706571242680548</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>31</v>
       </c>
@@ -6181,20 +6159,17 @@
       <c r="D8" s="30">
         <v>3</v>
       </c>
-      <c r="E8" s="30">
-        <v>31</v>
+      <c r="E8" s="32">
+        <v>0.63</v>
       </c>
       <c r="F8" s="32">
-        <v>0.63</v>
+        <v>0.57996369516920343</v>
       </c>
       <c r="G8" s="32">
-        <v>0.57996369516920343</v>
-      </c>
-      <c r="H8" s="32">
         <v>0.19364387729524482</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>46</v>
       </c>
@@ -6207,20 +6182,17 @@
       <c r="D9" s="30">
         <v>4</v>
       </c>
-      <c r="E9" s="30">
-        <v>46</v>
+      <c r="E9" s="32">
+        <v>0.63351934171128588</v>
       </c>
       <c r="F9" s="32">
-        <v>0.63351934171128588</v>
+        <v>0.63803796551691883</v>
       </c>
       <c r="G9" s="32">
-        <v>0.63803796551691883</v>
-      </c>
-      <c r="H9" s="32">
         <v>0.21339345461967837</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>7</v>
       </c>
@@ -6233,20 +6205,17 @@
       <c r="D10" s="30">
         <v>1</v>
       </c>
-      <c r="E10" s="30">
-        <v>7</v>
+      <c r="E10" s="32">
+        <v>0.58611646623948332</v>
       </c>
       <c r="F10" s="32">
-        <v>0.58611646623948332</v>
+        <v>0.59337579199575585</v>
       </c>
       <c r="G10" s="32">
-        <v>0.59337579199575585</v>
-      </c>
-      <c r="H10" s="32">
         <v>0.20051836129568995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>21</v>
       </c>
@@ -6259,20 +6228,17 @@
       <c r="D11" s="30">
         <v>2</v>
       </c>
-      <c r="E11" s="30">
-        <v>21</v>
+      <c r="E11" s="32">
+        <v>0.6</v>
       </c>
       <c r="F11" s="32">
-        <v>0.6</v>
+        <v>0.63063323126253212</v>
       </c>
       <c r="G11" s="32">
-        <v>0.63063323126253212</v>
-      </c>
-      <c r="H11" s="32">
         <v>0.22423442943579272</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>27</v>
       </c>
@@ -6285,20 +6251,17 @@
       <c r="D12" s="30">
         <v>3</v>
       </c>
-      <c r="E12" s="30">
-        <v>27</v>
+      <c r="E12" s="32">
+        <v>0.73354310722479754</v>
       </c>
       <c r="F12" s="32">
-        <v>0.73354310722479754</v>
+        <v>0.53701810370645764</v>
       </c>
       <c r="G12" s="32">
-        <v>0.53701810370645764</v>
-      </c>
-      <c r="H12" s="32">
         <v>0.29198153037989788</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>37</v>
       </c>
@@ -6311,20 +6274,17 @@
       <c r="D13" s="30">
         <v>3</v>
       </c>
-      <c r="E13" s="30">
-        <v>37</v>
+      <c r="E13" s="32">
+        <v>0.64</v>
       </c>
       <c r="F13" s="32">
-        <v>0.64</v>
+        <v>0.68926550424179356</v>
       </c>
       <c r="G13" s="32">
-        <v>0.68926550424179356</v>
-      </c>
-      <c r="H13" s="32">
         <v>0.26819533758769348</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>4</v>
       </c>
@@ -6337,20 +6297,17 @@
       <c r="D14" s="30">
         <v>1</v>
       </c>
-      <c r="E14" s="30">
-        <v>4</v>
+      <c r="E14" s="32">
+        <v>0.66590901210502851</v>
       </c>
       <c r="F14" s="32">
-        <v>0.66590901210502851</v>
+        <v>0.64967561771804894</v>
       </c>
       <c r="G14" s="32">
-        <v>0.64967561771804894</v>
-      </c>
-      <c r="H14" s="32">
         <v>0.21780883686024508</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>17</v>
       </c>
@@ -6363,20 +6320,17 @@
       <c r="D15" s="30">
         <v>2</v>
       </c>
-      <c r="E15" s="30">
-        <v>17</v>
+      <c r="E15" s="32">
+        <v>0.68166149492116912</v>
       </c>
       <c r="F15" s="32">
         <v>0.68166149492116912</v>
       </c>
       <c r="G15" s="32">
-        <v>0.68166149492116912</v>
-      </c>
-      <c r="H15" s="32">
         <v>0.1917835015159827</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
         <v>34</v>
       </c>
@@ -6389,20 +6343,17 @@
       <c r="D16" s="30">
         <v>3</v>
       </c>
-      <c r="E16" s="30">
-        <v>34</v>
+      <c r="E16" s="32">
+        <v>0.64046209752923811</v>
       </c>
       <c r="F16" s="32">
-        <v>0.64046209752923811</v>
+        <v>0.61371483471625354</v>
       </c>
       <c r="G16" s="32">
-        <v>0.61371483471625354</v>
-      </c>
-      <c r="H16" s="32">
         <v>0.20350596006164451</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>41</v>
       </c>
@@ -6415,20 +6366,17 @@
       <c r="D17" s="30">
         <v>4</v>
       </c>
-      <c r="E17" s="30">
-        <v>41</v>
+      <c r="E17" s="32">
+        <v>0.62479250074754189</v>
       </c>
       <c r="F17" s="32">
-        <v>0.62479250074754189</v>
+        <v>0.65</v>
       </c>
       <c r="G17" s="32">
-        <v>0.65</v>
-      </c>
-      <c r="H17" s="32">
         <v>0.20910923800049222</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>10</v>
       </c>
@@ -6441,20 +6389,17 @@
       <c r="D18" s="30">
         <v>1</v>
       </c>
-      <c r="E18" s="30">
-        <v>10</v>
+      <c r="E18" s="32">
+        <v>0.77142857142857157</v>
       </c>
       <c r="F18" s="32">
-        <v>0.77142857142857157</v>
+        <v>1.5315434618639918</v>
       </c>
       <c r="G18" s="32">
-        <v>1.5315434618639918</v>
-      </c>
-      <c r="H18" s="32">
         <v>0.22323882182528718</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -6467,20 +6412,17 @@
       <c r="D19" s="30">
         <v>2</v>
       </c>
-      <c r="E19" s="30">
-        <v>18</v>
+      <c r="E19" s="32">
+        <v>0.78571428571428581</v>
       </c>
       <c r="F19" s="32">
-        <v>0.78571428571428581</v>
+        <v>1.19</v>
       </c>
       <c r="G19" s="32">
-        <v>1.19</v>
-      </c>
-      <c r="H19" s="32">
         <v>0.19155562998162837</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>29</v>
       </c>
@@ -6493,20 +6435,17 @@
       <c r="D20" s="30">
         <v>3</v>
       </c>
-      <c r="E20" s="30">
-        <v>29</v>
+      <c r="E20" s="32">
+        <v>0.51428571428571435</v>
       </c>
       <c r="F20" s="32">
-        <v>0.51428571428571435</v>
+        <v>0.74314626472509793</v>
       </c>
       <c r="G20" s="32">
-        <v>0.74314626472509793</v>
-      </c>
-      <c r="H20" s="32">
         <v>0.2041888659678916</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>39</v>
       </c>
@@ -6519,20 +6458,17 @@
       <c r="D21" s="30">
         <v>4</v>
       </c>
-      <c r="E21" s="30">
-        <v>39</v>
+      <c r="E21" s="32">
+        <v>0.62857142857142867</v>
       </c>
       <c r="F21" s="32">
-        <v>0.62857142857142867</v>
+        <v>1.2935316234852616</v>
       </c>
       <c r="G21" s="32">
-        <v>1.2935316234852616</v>
-      </c>
-      <c r="H21" s="32">
         <v>0.1972835526472142</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>11</v>
       </c>
@@ -6545,20 +6481,17 @@
       <c r="D22" s="30">
         <v>1</v>
       </c>
-      <c r="E22" s="30">
-        <v>11</v>
+      <c r="E22" s="32">
+        <v>0.88571428571428579</v>
       </c>
       <c r="F22" s="32">
-        <v>0.88571428571428579</v>
+        <v>0.57111612640487264</v>
       </c>
       <c r="G22" s="32">
-        <v>0.57111612640487264</v>
-      </c>
-      <c r="H22" s="32">
         <v>0.21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>16</v>
       </c>
@@ -6571,20 +6504,17 @@
       <c r="D23" s="30">
         <v>2</v>
       </c>
-      <c r="E23" s="30">
-        <v>16</v>
+      <c r="E23" s="32">
+        <v>0.47142857142857147</v>
       </c>
       <c r="F23" s="32">
-        <v>0.47142857142857147</v>
+        <v>0.67329209602946605</v>
       </c>
       <c r="G23" s="32">
-        <v>0.67329209602946605</v>
-      </c>
-      <c r="H23" s="32">
         <v>0.2198119190966171</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>30</v>
       </c>
@@ -6597,20 +6527,17 @@
       <c r="D24" s="30">
         <v>3</v>
       </c>
-      <c r="E24" s="30">
-        <v>30</v>
+      <c r="E24" s="32">
+        <v>0.67142857142857149</v>
       </c>
       <c r="F24" s="32">
-        <v>0.67142857142857149</v>
+        <v>0.61272816640415861</v>
       </c>
       <c r="G24" s="32">
-        <v>0.61272816640415861</v>
-      </c>
-      <c r="H24" s="32">
         <v>0.20820614120406847</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>48</v>
       </c>
@@ -6623,20 +6550,17 @@
       <c r="D25" s="30">
         <v>4</v>
       </c>
-      <c r="E25" s="30">
-        <v>48</v>
+      <c r="E25" s="32">
+        <v>0.67142857142857149</v>
       </c>
       <c r="F25" s="32">
-        <v>0.67142857142857149</v>
+        <v>0.7770744695312829</v>
       </c>
       <c r="G25" s="32">
-        <v>0.7770744695312829</v>
-      </c>
-      <c r="H25" s="32">
         <v>0.1972835526472142</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>1</v>
       </c>
@@ -6649,20 +6573,17 @@
       <c r="D26" s="30">
         <v>1</v>
       </c>
-      <c r="E26" s="30">
-        <v>1</v>
+      <c r="E26" s="32">
+        <v>0.48571428571428577</v>
       </c>
       <c r="F26" s="32">
-        <v>0.48571428571428577</v>
+        <v>0.69092377502856228</v>
       </c>
       <c r="G26" s="32">
-        <v>0.69092377502856228</v>
-      </c>
-      <c r="H26" s="32">
         <v>0.2479676849780503</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>24</v>
       </c>
@@ -6675,20 +6596,17 @@
       <c r="D27" s="30">
         <v>2</v>
       </c>
-      <c r="E27" s="30">
-        <v>24</v>
+      <c r="E27" s="32">
+        <v>0.77142857142857157</v>
       </c>
       <c r="F27" s="32">
-        <v>0.77142857142857157</v>
+        <v>0.59034603942773345</v>
       </c>
       <c r="G27" s="32">
-        <v>0.59034603942773345</v>
-      </c>
-      <c r="H27" s="32">
         <v>0.22552259180900694</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>36</v>
       </c>
@@ -6701,20 +6619,17 @@
       <c r="D28" s="30">
         <v>3</v>
       </c>
-      <c r="E28" s="30">
-        <v>36</v>
+      <c r="E28" s="32">
+        <v>0.85714285714285721</v>
       </c>
       <c r="F28" s="32">
-        <v>0.85714285714285721</v>
+        <v>0.80892242281178206</v>
       </c>
       <c r="G28" s="32">
-        <v>0.80892242281178206</v>
-      </c>
-      <c r="H28" s="32">
         <v>0.21842994342311484</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="30">
         <v>40</v>
       </c>
@@ -6727,20 +6642,17 @@
       <c r="D29" s="30">
         <v>4</v>
       </c>
-      <c r="E29" s="30">
-        <v>40</v>
+      <c r="E29" s="32">
+        <v>0.57142857142857151</v>
       </c>
       <c r="F29" s="32">
-        <v>0.57142857142857151</v>
+        <v>0.61473118903428769</v>
       </c>
       <c r="G29" s="32">
-        <v>0.61473118903428769</v>
-      </c>
-      <c r="H29" s="32">
         <v>0.20949328453082725</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
         <v>5</v>
       </c>
@@ -6753,20 +6665,17 @@
       <c r="D30" s="30">
         <v>1</v>
       </c>
-      <c r="E30" s="30">
-        <v>5</v>
+      <c r="E30" s="32">
+        <v>0.6</v>
       </c>
       <c r="F30" s="32">
-        <v>0.6</v>
+        <v>0.72262240142340717</v>
       </c>
       <c r="G30" s="32">
-        <v>0.72262240142340717</v>
-      </c>
-      <c r="H30" s="32">
         <v>0.19775814179258769</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="30">
         <v>20</v>
       </c>
@@ -6779,20 +6688,17 @@
       <c r="D31" s="30">
         <v>2</v>
       </c>
-      <c r="E31" s="30">
-        <v>20</v>
+      <c r="E31" s="32">
+        <v>0.68571428571428572</v>
       </c>
       <c r="F31" s="32">
-        <v>0.68571428571428572</v>
+        <v>0.65892738586970501</v>
       </c>
       <c r="G31" s="32">
-        <v>0.65892738586970501</v>
-      </c>
-      <c r="H31" s="32">
         <v>0.21240430765080523</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="30">
         <v>35</v>
       </c>
@@ -6805,20 +6711,17 @@
       <c r="D32" s="30">
         <v>3</v>
       </c>
-      <c r="E32" s="30">
-        <v>35</v>
+      <c r="E32" s="32">
+        <v>0.58571428571428574</v>
       </c>
       <c r="F32" s="32">
-        <v>0.58571428571428574</v>
+        <v>0.71</v>
       </c>
       <c r="G32" s="32">
-        <v>0.71</v>
-      </c>
-      <c r="H32" s="32">
         <v>0.23118843032243522</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>44</v>
       </c>
@@ -6831,20 +6734,17 @@
       <c r="D33" s="30">
         <v>4</v>
       </c>
-      <c r="E33" s="30">
-        <v>44</v>
+      <c r="E33" s="32">
+        <v>0.6</v>
       </c>
       <c r="F33" s="32">
-        <v>0.6</v>
+        <v>0.7628877780945974</v>
       </c>
       <c r="G33" s="32">
-        <v>0.7628877780945974</v>
-      </c>
-      <c r="H33" s="32">
         <v>0.22597965463023206</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="30">
         <v>12</v>
       </c>
@@ -6857,20 +6757,17 @@
       <c r="D34" s="30">
         <v>1</v>
       </c>
-      <c r="E34" s="30">
-        <v>12</v>
+      <c r="E34" s="32">
+        <v>0.41</v>
       </c>
       <c r="F34" s="32">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="G34" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="H34" s="32">
         <v>0.2508107893338366</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>15</v>
       </c>
@@ -6883,20 +6780,17 @@
       <c r="D35" s="30">
         <v>2</v>
       </c>
-      <c r="E35" s="30">
-        <v>15</v>
+      <c r="E35" s="32">
+        <v>0.62248726761952644</v>
       </c>
       <c r="F35" s="32">
-        <v>0.62248726761952644</v>
+        <v>0.57036144356641472</v>
       </c>
       <c r="G35" s="32">
-        <v>0.57036144356641472</v>
-      </c>
-      <c r="H35" s="32">
         <v>0.19945653278198738</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>26</v>
       </c>
@@ -6909,20 +6803,17 @@
       <c r="D36" s="30">
         <v>3</v>
       </c>
-      <c r="E36" s="30">
-        <v>26</v>
+      <c r="E36" s="32">
+        <v>0.54259093308454354</v>
       </c>
       <c r="F36" s="32">
-        <v>0.54259093308454354</v>
+        <v>1.4</v>
       </c>
       <c r="G36" s="32">
-        <v>1.4</v>
-      </c>
-      <c r="H36" s="32">
         <v>0.20405467176658626</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>45</v>
       </c>
@@ -6935,20 +6826,17 @@
       <c r="D37" s="30">
         <v>4</v>
       </c>
-      <c r="E37" s="30">
-        <v>45</v>
+      <c r="E37" s="32">
+        <v>0.53</v>
       </c>
       <c r="F37" s="32">
-        <v>0.53</v>
+        <v>0.70071535668771068</v>
       </c>
       <c r="G37" s="32">
-        <v>0.70071535668771068</v>
-      </c>
-      <c r="H37" s="32">
         <v>0.2708494230660477</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>2</v>
       </c>
@@ -6961,20 +6849,17 @@
       <c r="D38" s="30">
         <v>1</v>
       </c>
-      <c r="E38" s="30">
-        <v>2</v>
+      <c r="E38" s="32">
+        <v>0.50206190184786492</v>
       </c>
       <c r="F38" s="32">
-        <v>0.50206190184786492</v>
+        <v>0.56960242498572866</v>
       </c>
       <c r="G38" s="32">
-        <v>0.56960242498572866</v>
-      </c>
-      <c r="H38" s="32">
         <v>0.22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>22</v>
       </c>
@@ -6987,20 +6872,17 @@
       <c r="D39" s="30">
         <v>2</v>
       </c>
-      <c r="E39" s="30">
-        <v>22</v>
+      <c r="E39" s="32">
+        <v>0.66156468501815024</v>
       </c>
       <c r="F39" s="32">
-        <v>0.66156468501815024</v>
+        <v>0.6640641943179354</v>
       </c>
       <c r="G39" s="32">
-        <v>0.6640641943179354</v>
-      </c>
-      <c r="H39" s="32">
         <v>0.19895199301285751</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>33</v>
       </c>
@@ -7013,20 +6895,17 @@
       <c r="D40" s="30">
         <v>3</v>
       </c>
-      <c r="E40" s="30">
-        <v>33</v>
+      <c r="E40" s="32">
+        <v>0.47295168278561117</v>
       </c>
       <c r="F40" s="32">
-        <v>0.47295168278561117</v>
+        <v>0.56663669745878653</v>
       </c>
       <c r="G40" s="32">
-        <v>0.56663669745878653</v>
-      </c>
-      <c r="H40" s="32">
         <v>0.20527580495156889</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>47</v>
       </c>
@@ -7039,20 +6918,17 @@
       <c r="D41" s="30">
         <v>4</v>
       </c>
-      <c r="E41" s="30">
-        <v>47</v>
+      <c r="E41" s="32">
+        <v>0.72984544379295924</v>
       </c>
       <c r="F41" s="32">
-        <v>0.72984544379295924</v>
+        <v>0.74424308942614792</v>
       </c>
       <c r="G41" s="32">
-        <v>0.74424308942614792</v>
-      </c>
-      <c r="H41" s="32">
         <v>0.25260679156001437</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>8</v>
       </c>
@@ -7065,20 +6941,17 @@
       <c r="D42" s="30">
         <v>1</v>
       </c>
-      <c r="E42" s="30">
-        <v>8</v>
+      <c r="E42" s="32">
+        <v>0.65156329505766553</v>
       </c>
       <c r="F42" s="32">
-        <v>0.65156329505766553</v>
+        <v>0.64662527592427277</v>
       </c>
       <c r="G42" s="32">
-        <v>0.64662527592427277</v>
-      </c>
-      <c r="H42" s="32">
         <v>0.27988300597279125</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>23</v>
       </c>
@@ -7091,20 +6964,17 @@
       <c r="D43" s="30">
         <v>2</v>
       </c>
-      <c r="E43" s="30">
-        <v>23</v>
+      <c r="E43" s="32">
+        <v>0.60972209313133197</v>
       </c>
       <c r="F43" s="32">
-        <v>0.60972209313133197</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="G43" s="32">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="H43" s="32">
         <v>0.21345982068754538</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>28</v>
       </c>
@@ -7117,20 +6987,17 @@
       <c r="D44" s="30">
         <v>3</v>
       </c>
-      <c r="E44" s="30">
-        <v>28</v>
+      <c r="E44" s="32">
+        <v>0.7233399300124983</v>
       </c>
       <c r="F44" s="32">
-        <v>0.7233399300124983</v>
+        <v>0.40524212287387301</v>
       </c>
       <c r="G44" s="32">
-        <v>0.40524212287387301</v>
-      </c>
-      <c r="H44" s="32">
         <v>0.22229195686554434</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43</v>
       </c>
@@ -7143,20 +7010,17 @@
       <c r="D45" s="30">
         <v>4</v>
       </c>
-      <c r="E45" s="30">
-        <v>43</v>
+      <c r="E45" s="32">
+        <v>0.59758192083427131</v>
       </c>
       <c r="F45" s="32">
-        <v>0.59758192083427131</v>
+        <v>0.79</v>
       </c>
       <c r="G45" s="32">
-        <v>0.79</v>
-      </c>
-      <c r="H45" s="32">
         <v>0.20523141782572835</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>9</v>
       </c>
@@ -7169,20 +7033,17 @@
       <c r="D46" s="30">
         <v>1</v>
       </c>
-      <c r="E46" s="30">
-        <v>9</v>
+      <c r="E46" s="32">
+        <v>0.61218758075599655</v>
       </c>
       <c r="F46" s="32">
-        <v>0.61218758075599655</v>
+        <v>0.65659283037106608</v>
       </c>
       <c r="G46" s="32">
-        <v>0.65659283037106608</v>
-      </c>
-      <c r="H46" s="32">
         <v>0.20888037526752673</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>14</v>
       </c>
@@ -7195,20 +7056,17 @@
       <c r="D47" s="30">
         <v>2</v>
       </c>
-      <c r="E47" s="30">
-        <v>14</v>
+      <c r="E47" s="32">
+        <v>0.67655776255416489</v>
       </c>
       <c r="F47" s="32">
-        <v>0.67655776255416489</v>
+        <v>0.66813883698544807</v>
       </c>
       <c r="G47" s="32">
-        <v>0.66813883698544807</v>
-      </c>
-      <c r="H47" s="32">
         <v>0.25352438380108783</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>25</v>
       </c>
@@ -7221,20 +7079,17 @@
       <c r="D48" s="30">
         <v>2</v>
       </c>
-      <c r="E48" s="30">
-        <v>25</v>
+      <c r="E48" s="32">
+        <v>0.73066192270740937</v>
       </c>
       <c r="F48" s="32">
-        <v>0.73066192270740937</v>
+        <v>0.66384334329313399</v>
       </c>
       <c r="G48" s="32">
-        <v>0.66384334329313399</v>
-      </c>
-      <c r="H48" s="32">
         <v>0.19275262602060642</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>38</v>
       </c>
@@ -7247,21 +7102,18 @@
       <c r="D49" s="30">
         <v>4</v>
       </c>
-      <c r="E49" s="30">
-        <v>38</v>
+      <c r="E49" s="32">
+        <v>0.7156167903640368</v>
       </c>
       <c r="F49" s="32">
-        <v>0.7156167903640368</v>
+        <v>0.62943911299067445</v>
       </c>
       <c r="G49" s="32">
-        <v>0.62943911299067445</v>
-      </c>
-      <c r="H49" s="32">
         <v>0.19981289665365645</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
+  <sortState ref="A2:G49">
     <sortCondition ref="C2:C49"/>
     <sortCondition ref="B2:B49"/>
     <sortCondition ref="D2:D49"/>
@@ -7271,21 +7123,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F4B79-7FDE-462C-A17B-B8D64CA4E83F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="8.88671875" style="29"/>
-    <col min="6" max="6" width="13.21875" style="29" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="29"/>
+    <col min="1" max="5" width="8.85546875" style="29"/>
+    <col min="6" max="6" width="13.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
@@ -7308,7 +7160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -7331,7 +7183,7 @@
         <v>14.237735812083599</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -7354,7 +7206,7 @@
         <v>13.9432964138611</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -7377,7 +7229,7 @@
         <v>12.3334805996701</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -7400,7 +7252,7 @@
         <v>12.032971870048</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -7423,7 +7275,7 @@
         <v>14.0643198013091</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -7446,7 +7298,7 @@
         <v>12.0384359803723</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -7469,7 +7321,7 @@
         <v>15.101008887438301</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -7492,7 +7344,7 @@
         <v>14.638486666666701</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -7515,7 +7367,7 @@
         <v>14.897270594119099</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -7538,7 +7390,7 @@
         <v>16.4760109078222</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -7561,7 +7413,7 @@
         <v>14.759483146464</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -7584,7 +7436,7 @@
         <v>15.721394127381799</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -7607,7 +7459,7 @@
         <v>14.009881722654701</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -7630,7 +7482,7 @@
         <v>16.344513342384001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -7653,7 +7505,7 @@
         <v>14.3240287212734</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -7676,7 +7528,7 @@
         <v>15.5374912147147</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -7699,7 +7551,7 @@
         <v>13.5156877421438</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -7722,7 +7574,7 @@
         <v>14.0833791887889</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -7745,7 +7597,7 @@
         <v>11.347734860240701</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -7768,7 +7620,7 @@
         <v>15.7810045072391</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -7791,7 +7643,7 @@
         <v>14.2101751632327</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -7814,7 +7666,7 @@
         <v>14.4083627771232</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -7837,7 +7689,7 @@
         <v>12.7614561254361</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -7860,7 +7712,7 @@
         <v>14.9542883579271</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -7883,7 +7735,7 @@
         <v>16.684198870766899</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -7906,7 +7758,7 @@
         <v>15.5392446225682</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -7929,7 +7781,7 @@
         <v>13.927666666666701</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -7952,7 +7804,7 @@
         <v>15.8687920069712</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -7975,7 +7827,7 @@
         <v>15.3892905089289</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -7998,7 +7850,7 @@
         <v>13.2371530607401</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -8021,7 +7873,7 @@
         <v>14.0709650648317</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -8044,7 +7896,7 @@
         <v>12.595973460854299</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -8067,7 +7919,7 @@
         <v>13.7997979689936</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -8090,7 +7942,7 @@
         <v>14.5166522135856</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <v>35</v>
       </c>
@@ -8113,7 +7965,7 @@
         <v>14.9765343286362</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -8136,7 +7988,7 @@
         <v>13.822249248531399</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -8159,7 +8011,7 @@
         <v>12.236659626829899</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -8182,7 +8034,7 @@
         <v>14.263422784552199</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -8205,7 +8057,7 @@
         <v>13.837060802967899</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -8228,7 +8080,7 @@
         <v>14.1154669933333</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -8251,7 +8103,7 @@
         <v>17.270414462199899</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -8274,7 +8126,7 @@
         <v>12.9538856765771</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -8297,7 +8149,7 @@
         <v>14.815144221101001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -8320,7 +8172,7 @@
         <v>15.262034342333299</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -8343,7 +8195,7 @@
         <v>15.7360582916507</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -8366,7 +8218,7 @@
         <v>12.355482112710799</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -8389,7 +8241,7 @@
         <v>13.684631090494699</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -8413,7 +8265,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G49">
+  <sortState ref="A2:G49">
     <sortCondition ref="A1:A49"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
